--- a/experiments/pg/return_discount_increment/no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3219"/>
+  <dimension ref="A1:C3228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42279,6 +42279,123 @@
         <v>14.09895303962497</v>
       </c>
     </row>
+    <row r="3220">
+      <c r="A3220" s="1" t="n">
+        <v>3218</v>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>[2, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C3220" t="n">
+        <v>14.69526762012147</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" s="1" t="n">
+        <v>3219</v>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>[-1, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3221" t="n">
+        <v>14.98849843518386</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" s="1" t="n">
+        <v>3220</v>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>[-2, -7, 6]</t>
+        </is>
+      </c>
+      <c r="C3222" t="n">
+        <v>14.4693620272999</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" s="1" t="n">
+        <v>3221</v>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>[0, -7, 7]</t>
+        </is>
+      </c>
+      <c r="C3223" t="n">
+        <v>15.30567959749928</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" s="1" t="n">
+        <v>3222</v>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>[-1, -7, 7]</t>
+        </is>
+      </c>
+      <c r="C3224" t="n">
+        <v>14.98849843574304</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" s="1" t="n">
+        <v>3223</v>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>[-2, -7, 7]</t>
+        </is>
+      </c>
+      <c r="C3225" t="n">
+        <v>14.47160045107921</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" s="1" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>[-3, -7, 6]</t>
+        </is>
+      </c>
+      <c r="C3226" t="n">
+        <v>14.08169243711738</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" s="1" t="n">
+        <v>3225</v>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>[-2, 7, -7]</t>
+        </is>
+      </c>
+      <c r="C3227" t="n">
+        <v>14.4716004514333</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" s="1" t="n">
+        <v>3226</v>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>[3, -7, 6]</t>
+        </is>
+      </c>
+      <c r="C3228" t="n">
+        <v>14.23255059528854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
